--- a/resources/5_course.xlsx
+++ b/resources/5_course.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/go/src/ImsitTgBotARM/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A158ACAB-8E4F-5549-BD22-212C872E2C95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D297F0-0F1D-DD42-94E4-0204DEA6CB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="16460" windowHeight="21480" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="16460" windowHeight="21480" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1week" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="35">
   <si>
     <t xml:space="preserve">Дни </t>
   </si>
@@ -567,7 +567,22 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -576,40 +591,13 @@
     <xf numFmtId="49" fontId="10" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -617,6 +605,18 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N127"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D85"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -859,52 +859,54 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" s="4" customFormat="1" ht="86" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" s="4" customFormat="1" ht="153" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -925,28 +927,30 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" s="4" customFormat="1" ht="51" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -967,28 +971,30 @@
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" s="4" customFormat="1" ht="40" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -1009,28 +1015,30 @@
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="23"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -1051,28 +1059,30 @@
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="23"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -1093,28 +1103,30 @@
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -1135,70 +1147,74 @@
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
+      <c r="B15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
     </row>
     <row r="17" spans="1:14" s="4" customFormat="1" ht="52" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -1219,28 +1235,30 @@
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="20"/>
+      <c r="B19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -1261,28 +1279,30 @@
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -1303,28 +1323,30 @@
       <c r="A23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="23"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -1345,28 +1367,30 @@
       <c r="A25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="23"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1387,28 +1411,30 @@
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="B27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="23"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
     </row>
     <row r="28" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -1429,70 +1455,74 @@
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1" thickTop="1">
       <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="18"/>
     </row>
     <row r="31" spans="1:14" s="4" customFormat="1" ht="52" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+      <c r="B31" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -1513,28 +1543,30 @@
       <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="B33" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="23"/>
+      <c r="N33" s="20"/>
     </row>
     <row r="34" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -1555,28 +1587,30 @@
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" s="4" customFormat="1" ht="96.25" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -1597,15 +1631,17 @@
       <c r="A37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -1615,10 +1651,10 @@
       <c r="A38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -1639,28 +1675,30 @@
       <c r="A39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -1681,28 +1719,30 @@
       <c r="A41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="B41" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -1723,70 +1763,74 @@
       <c r="A43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
+      <c r="B43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="D44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="21"/>
+      <c r="N44" s="26"/>
     </row>
     <row r="45" spans="1:14" s="4" customFormat="1" ht="52" thickBot="1">
       <c r="A45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="B45" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="22"/>
+      <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -1807,28 +1851,30 @@
       <c r="A47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="B47" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -1849,16 +1895,18 @@
       <c r="A49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="20"/>
+      <c r="B49" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -1867,10 +1915,10 @@
       <c r="A50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -1891,28 +1939,30 @@
       <c r="A51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="20"/>
+      <c r="B51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="23"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
-      <c r="N51" s="23"/>
+      <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -1933,28 +1983,30 @@
       <c r="A53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="B53" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -1975,28 +2027,30 @@
       <c r="A55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="B55" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1" thickBot="1">
       <c r="A56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -2017,70 +2071,74 @@
       <c r="A57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
+      <c r="B57" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
     </row>
     <row r="58" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickTop="1">
       <c r="A58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
       <c r="K58" s="18"/>
-      <c r="L58" s="21"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="18"/>
-      <c r="N58" s="21"/>
+      <c r="N58" s="26"/>
     </row>
     <row r="59" spans="1:14" s="4" customFormat="1" ht="52" thickBot="1">
       <c r="A59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C59" s="30"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="23"/>
+      <c r="L59" s="20"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="22"/>
+      <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -2101,28 +2159,30 @@
       <c r="A61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="20"/>
+      <c r="B61" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" s="4" customFormat="1" ht="82.75" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -2143,28 +2203,30 @@
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="20"/>
+      <c r="B63" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21"/>
       <c r="I63" s="15"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="20"/>
+      <c r="N63" s="21"/>
     </row>
     <row r="64" spans="1:14" s="4" customFormat="1" ht="69.25" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -2185,28 +2247,30 @@
       <c r="A65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="15"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="23"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="20"/>
     </row>
     <row r="66" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -2227,28 +2291,30 @@
       <c r="A67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
+      <c r="B67" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
       <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -2269,28 +2335,30 @@
       <c r="A69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
       <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" s="4" customFormat="1" ht="42" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -2311,70 +2379,74 @@
       <c r="A71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
+      <c r="B71" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:14" s="4" customFormat="1" ht="28.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="C72" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
       <c r="K72" s="18"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
     </row>
     <row r="73" spans="1:14" s="4" customFormat="1" ht="52" thickBot="1">
       <c r="A73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C73" s="30"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
     </row>
     <row r="74" spans="1:14" s="4" customFormat="1" ht="82.75" customHeight="1" thickBot="1">
       <c r="A74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -2395,28 +2467,30 @@
       <c r="A75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="B75" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
     </row>
     <row r="76" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -2437,28 +2511,30 @@
       <c r="A77" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="B77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
     </row>
     <row r="78" spans="1:14" s="4" customFormat="1" ht="55.5" customHeight="1" thickBot="1">
       <c r="A78" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -2479,28 +2555,30 @@
       <c r="A79" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
+      <c r="B79" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
     </row>
     <row r="80" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="19" t="s">
@@ -2521,28 +2599,30 @@
       <c r="A81" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
+      <c r="B81" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
     </row>
     <row r="82" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -2563,28 +2643,30 @@
       <c r="A83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
+      <c r="B83" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
     </row>
     <row r="84" spans="1:14" s="4" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -2605,19 +2687,21 @@
       <c r="A85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
+      <c r="B85" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
     </row>
     <row r="86" spans="1:14" s="4" customFormat="1">
       <c r="A86" s="5"/>
@@ -2913,418 +2997,66 @@
       <c r="D127" s="8"/>
     </row>
   </sheetData>
-  <mergeCells count="494">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="K56:K57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="K66:K67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="L72:L73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="L76:L77"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="M2:M3"/>
+  <mergeCells count="452">
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="M6:M7"/>
@@ -3349,65 +3081,375 @@
     <mergeCell ref="K54:K55"/>
     <mergeCell ref="L54:L55"/>
     <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="L76:L77"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="L72:L73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="K66:K67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="K56:K57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3418,8 +3460,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="58" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+    <sheetView zoomScale="58" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3462,52 +3504,54 @@
       <c r="A2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" s="21"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
-      <c r="N2" s="21"/>
+      <c r="D2" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
     </row>
     <row r="3" spans="1:14" ht="35" thickBot="1">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22"/>
-      <c r="I3" s="22"/>
-      <c r="J3" s="22"/>
-      <c r="K3" s="22"/>
-      <c r="L3" s="22"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
+      <c r="B3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="24"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="27"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="27"/>
     </row>
     <row r="4" spans="1:14" ht="113.5" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D4" s="19" t="s">
@@ -3528,28 +3572,30 @@
       <c r="A5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="23"/>
+      <c r="B5" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
       <c r="M5" s="15"/>
-      <c r="N5" s="20"/>
+      <c r="N5" s="21"/>
     </row>
     <row r="6" spans="1:14" ht="141.25" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D6" s="19" t="s">
@@ -3570,28 +3616,30 @@
       <c r="A7" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="B7" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="23"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
       <c r="L7" s="15"/>
-      <c r="M7" s="23"/>
+      <c r="M7" s="20"/>
       <c r="N7" s="15"/>
     </row>
     <row r="8" spans="1:14" ht="141.25" customHeight="1">
       <c r="A8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="19" t="s">
@@ -3612,28 +3660,30 @@
       <c r="A9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
+      <c r="B9" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="23"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
       <c r="F9" s="15"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="20"/>
-      <c r="L9" s="20"/>
-      <c r="M9" s="20"/>
-      <c r="N9" s="23"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="169.25" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D10" s="19" t="s">
@@ -3654,28 +3704,30 @@
       <c r="A11" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="27"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
+      <c r="B11" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="23"/>
+      <c r="D11" s="25"/>
       <c r="E11" s="15"/>
       <c r="F11" s="15"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="20"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="20"/>
-      <c r="N11" s="23"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="19" t="s">
@@ -3696,28 +3748,30 @@
       <c r="A13" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="27"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="20"/>
-      <c r="L13" s="20"/>
-      <c r="M13" s="20"/>
-      <c r="N13" s="23"/>
+      <c r="B13" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="23"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="19" t="s">
@@ -3738,70 +3792,74 @@
       <c r="A15" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="31"/>
-      <c r="F15" s="31"/>
-      <c r="G15" s="31"/>
-      <c r="H15" s="31"/>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="24"/>
-      <c r="N15" s="24"/>
+      <c r="B15" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="29"/>
     </row>
     <row r="16" spans="1:14" ht="99.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A16" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-    </row>
-    <row r="17" spans="1:14" ht="18" thickBot="1">
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="26"/>
+    </row>
+    <row r="17" spans="1:14" ht="31" thickBot="1">
       <c r="A17" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="28"/>
+      <c r="B17" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C17" s="30"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="23"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="27"/>
     </row>
     <row r="18" spans="1:14" ht="113.5" customHeight="1" thickBot="1">
       <c r="A18" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="22" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="19" t="s">
@@ -3818,32 +3876,34 @@
       <c r="M18" s="19"/>
       <c r="N18" s="19"/>
     </row>
-    <row r="19" spans="1:14" ht="18" thickBot="1">
+    <row r="19" spans="1:14" ht="31" thickBot="1">
       <c r="A19" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B19" s="27"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
-      <c r="K19" s="23"/>
-      <c r="L19" s="20"/>
-      <c r="M19" s="23"/>
-      <c r="N19" s="20"/>
+      <c r="B19" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="24"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="21"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
+      <c r="J19" s="21"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="21"/>
+      <c r="M19" s="20"/>
+      <c r="N19" s="21"/>
     </row>
     <row r="20" spans="1:14" ht="99.5" customHeight="1" thickBot="1">
       <c r="A20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="19" t="s">
@@ -3860,32 +3920,34 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" spans="1:14" ht="18" thickBot="1">
+    <row r="21" spans="1:14" ht="31" thickBot="1">
       <c r="A21" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="32"/>
-      <c r="D21" s="23"/>
+      <c r="B21" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" s="24"/>
+      <c r="D21" s="20"/>
       <c r="E21" s="15"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-      <c r="K21" s="23"/>
-      <c r="L21" s="23"/>
-      <c r="M21" s="23"/>
-      <c r="N21" s="23"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
     </row>
     <row r="22" spans="1:14" ht="113.5" customHeight="1" thickBot="1">
       <c r="A22" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="22" t="s">
         <v>23</v>
       </c>
       <c r="D22" s="19" t="s">
@@ -3902,32 +3964,34 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" spans="1:14" ht="18" thickBot="1">
+    <row r="23" spans="1:14" ht="31" thickBot="1">
       <c r="A23" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
+      <c r="B23" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="21"/>
+      <c r="H23" s="21"/>
       <c r="I23" s="15"/>
-      <c r="J23" s="23"/>
+      <c r="J23" s="20"/>
       <c r="K23" s="15"/>
-      <c r="L23" s="23"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="23"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="20"/>
     </row>
     <row r="24" spans="1:14" ht="113.5" customHeight="1" thickBot="1">
       <c r="A24" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="19" t="s">
@@ -3944,32 +4008,34 @@
       <c r="M24" s="19"/>
       <c r="N24" s="19"/>
     </row>
-    <row r="25" spans="1:14" ht="18" thickBot="1">
+    <row r="25" spans="1:14" ht="31" thickBot="1">
       <c r="A25" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B25" s="27"/>
-      <c r="C25" s="32"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
+      <c r="B25" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
       <c r="I25" s="15"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="23"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="23"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="20"/>
     </row>
     <row r="26" spans="1:14" ht="71.5" customHeight="1" thickBot="1">
       <c r="A26" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3986,32 +4052,34 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" spans="1:14" ht="18" thickBot="1">
+    <row r="27" spans="1:14" ht="31" thickBot="1">
       <c r="A27" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="27"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
+      <c r="B27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C27" s="23"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
       <c r="I27" s="15"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="23"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="23"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="20"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A28" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B28" s="25" t="s">
+      <c r="B28" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C28" s="26" t="s">
+      <c r="C28" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D28" s="19" t="s">
@@ -4028,74 +4096,78 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" spans="1:14" ht="18" thickBot="1">
+    <row r="29" spans="1:14" ht="31" thickBot="1">
       <c r="A29" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B29" s="25"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
+      <c r="B29" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
       <c r="H29" s="17"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="24"/>
-      <c r="N29" s="24"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
     </row>
     <row r="30" spans="1:14" ht="85.5" customHeight="1" thickTop="1">
       <c r="A30" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C30" s="29" t="s">
+      <c r="C30" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D30" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="21"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
+      <c r="E30" s="26"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+      <c r="J30" s="26"/>
+      <c r="K30" s="26"/>
+      <c r="L30" s="26"/>
+      <c r="M30" s="26"/>
       <c r="N30" s="18"/>
     </row>
-    <row r="31" spans="1:14" ht="18" thickBot="1">
+    <row r="31" spans="1:14" ht="31" thickBot="1">
       <c r="A31" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="28"/>
-      <c r="C31" s="32"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
-      <c r="K31" s="22"/>
-      <c r="L31" s="23"/>
-      <c r="M31" s="23"/>
+      <c r="B31" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="20"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
+      <c r="K31" s="27"/>
+      <c r="L31" s="20"/>
+      <c r="M31" s="20"/>
       <c r="N31" s="15"/>
     </row>
     <row r="32" spans="1:14" ht="85.5" customHeight="1">
       <c r="A32" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="26" t="s">
+      <c r="C32" s="22" t="s">
         <v>26</v>
       </c>
       <c r="D32" s="19" t="s">
@@ -4112,32 +4184,34 @@
       <c r="M32" s="16"/>
       <c r="N32" s="19"/>
     </row>
-    <row r="33" spans="1:14" ht="18" thickBot="1">
+    <row r="33" spans="1:14" ht="31" thickBot="1">
       <c r="A33" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="27"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
+      <c r="B33" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33" s="24"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="21"/>
+      <c r="J33" s="21"/>
       <c r="K33" s="15"/>
       <c r="L33" s="15"/>
       <c r="M33" s="15"/>
-      <c r="N33" s="23"/>
+      <c r="N33" s="20"/>
     </row>
     <row r="34" spans="1:14" ht="113.5" customHeight="1">
       <c r="A34" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="26" t="s">
+      <c r="C34" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D34" s="19" t="s">
@@ -4154,32 +4228,34 @@
       <c r="M34" s="19"/>
       <c r="N34" s="16"/>
     </row>
-    <row r="35" spans="1:14" ht="18" thickBot="1">
+    <row r="35" spans="1:14" ht="31" thickBot="1">
       <c r="A35" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B35" s="27"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
+      <c r="B35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C35" s="24"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
       <c r="I35" s="15"/>
-      <c r="J35" s="20"/>
+      <c r="J35" s="21"/>
       <c r="K35" s="15"/>
       <c r="L35" s="15"/>
-      <c r="M35" s="23"/>
+      <c r="M35" s="20"/>
       <c r="N35" s="15"/>
     </row>
     <row r="36" spans="1:14" ht="155.25" customHeight="1">
       <c r="A36" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="27" t="s">
+      <c r="B36" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C36" s="26" t="s">
+      <c r="C36" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D36" s="19" t="s">
@@ -4196,19 +4272,21 @@
       <c r="M36" s="16"/>
       <c r="N36" s="16"/>
     </row>
-    <row r="37" spans="1:14" ht="18" thickBot="1">
+    <row r="37" spans="1:14" ht="31" thickBot="1">
       <c r="A37" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="27"/>
-      <c r="C37" s="32"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-      <c r="J37" s="23"/>
+      <c r="B37" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" s="24"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
       <c r="K37" s="15"/>
       <c r="L37" s="15"/>
       <c r="M37" s="15"/>
@@ -4218,10 +4296,10 @@
       <c r="A38" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B38" s="27" t="s">
+      <c r="B38" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C38" s="26" t="s">
+      <c r="C38" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="19" t="s">
@@ -4238,32 +4316,34 @@
       <c r="M38" s="19"/>
       <c r="N38" s="19"/>
     </row>
-    <row r="39" spans="1:14" ht="18" thickBot="1">
+    <row r="39" spans="1:14" ht="31" thickBot="1">
       <c r="A39" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B39" s="27"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
+      <c r="B39" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C39" s="23"/>
+      <c r="D39" s="25"/>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
       <c r="H39" s="15"/>
       <c r="I39" s="15"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="23"/>
-      <c r="L39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="21"/>
+      <c r="M39" s="21"/>
+      <c r="N39" s="21"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1">
       <c r="A40" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="27" t="s">
+      <c r="B40" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="26" t="s">
+      <c r="C40" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="19" t="s">
@@ -4280,32 +4360,34 @@
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" spans="1:14" ht="18" thickBot="1">
+    <row r="41" spans="1:14" ht="31" thickBot="1">
       <c r="A41" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B41" s="27"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
+      <c r="B41" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="23"/>
+      <c r="D41" s="25"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
       <c r="I41" s="15"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="20"/>
-      <c r="M41" s="20"/>
-      <c r="N41" s="20"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="21"/>
+      <c r="L41" s="21"/>
+      <c r="M41" s="21"/>
+      <c r="N41" s="21"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1">
       <c r="A42" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B42" s="25" t="s">
+      <c r="B42" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D42" s="19" t="s">
@@ -4322,74 +4404,78 @@
       <c r="M42" s="19"/>
       <c r="N42" s="19"/>
     </row>
-    <row r="43" spans="1:14" ht="18" thickBot="1">
+    <row r="43" spans="1:14" ht="31" thickBot="1">
       <c r="A43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="35"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="31"/>
-      <c r="F43" s="31"/>
-      <c r="G43" s="31"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
-      <c r="M43" s="24"/>
-      <c r="N43" s="24"/>
+      <c r="B43" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" s="31"/>
+      <c r="D43" s="32"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="29"/>
+      <c r="M43" s="29"/>
+      <c r="N43" s="29"/>
     </row>
     <row r="44" spans="1:14" ht="99.5" customHeight="1" thickTop="1" thickBot="1">
       <c r="A44" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B44" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="29" t="s">
+      <c r="C44" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="D44" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E44" s="21"/>
-      <c r="F44" s="21"/>
-      <c r="G44" s="21"/>
-      <c r="H44" s="21"/>
-      <c r="I44" s="21"/>
-      <c r="J44" s="21"/>
-      <c r="K44" s="21"/>
+      <c r="D44" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
       <c r="L44" s="18"/>
       <c r="M44" s="18"/>
-      <c r="N44" s="21"/>
-    </row>
-    <row r="45" spans="1:14" ht="18" thickBot="1">
+      <c r="N44" s="26"/>
+    </row>
+    <row r="45" spans="1:14" ht="31" thickBot="1">
       <c r="A45" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B45" s="28"/>
-      <c r="C45" s="32"/>
-      <c r="D45" s="22"/>
-      <c r="E45" s="23"/>
-      <c r="F45" s="22"/>
-      <c r="G45" s="22"/>
-      <c r="H45" s="22"/>
-      <c r="I45" s="22"/>
-      <c r="J45" s="22"/>
-      <c r="K45" s="22"/>
+      <c r="B45" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="24"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="27"/>
+      <c r="G45" s="27"/>
+      <c r="H45" s="27"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="27"/>
+      <c r="K45" s="27"/>
       <c r="L45" s="15"/>
       <c r="M45" s="15"/>
-      <c r="N45" s="22"/>
+      <c r="N45" s="27"/>
     </row>
     <row r="46" spans="1:14" ht="127.25" customHeight="1" thickBot="1">
       <c r="A46" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B46" s="27" t="s">
+      <c r="B46" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="26" t="s">
+      <c r="C46" s="22" t="s">
         <v>31</v>
       </c>
       <c r="D46" s="19" t="s">
@@ -4406,32 +4492,34 @@
       <c r="M46" s="19"/>
       <c r="N46" s="16"/>
     </row>
-    <row r="47" spans="1:14" ht="18" thickBot="1">
+    <row r="47" spans="1:14" ht="31" thickBot="1">
       <c r="A47" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B47" s="27"/>
-      <c r="C47" s="32"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="23"/>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="B47" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C47" s="24"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="21"/>
+      <c r="I47" s="21"/>
+      <c r="J47" s="21"/>
+      <c r="K47" s="21"/>
+      <c r="L47" s="20"/>
+      <c r="M47" s="20"/>
       <c r="N47" s="15"/>
     </row>
     <row r="48" spans="1:14" ht="85.5" customHeight="1" thickBot="1">
       <c r="A48" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C48" s="26" t="s">
+      <c r="C48" s="22" t="s">
         <v>19</v>
       </c>
       <c r="D48" s="19" t="s">
@@ -4448,20 +4536,22 @@
       <c r="M48" s="16"/>
       <c r="N48" s="16"/>
     </row>
-    <row r="49" spans="1:14" ht="18" thickBot="1">
+    <row r="49" spans="1:14" ht="31" thickBot="1">
       <c r="A49" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B49" s="27"/>
-      <c r="C49" s="32"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="23"/>
-      <c r="H49" s="20"/>
+      <c r="B49" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C49" s="24"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="21"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="21"/>
       <c r="I49" s="15"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="21"/>
       <c r="L49" s="15"/>
       <c r="M49" s="15"/>
       <c r="N49" s="15"/>
@@ -4470,10 +4560,10 @@
       <c r="A50" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C50" s="26" t="s">
+      <c r="C50" s="22" t="s">
         <v>30</v>
       </c>
       <c r="D50" s="19" t="s">
@@ -4490,32 +4580,34 @@
       <c r="M50" s="16"/>
       <c r="N50" s="19"/>
     </row>
-    <row r="51" spans="1:14" ht="18" thickBot="1">
+    <row r="51" spans="1:14" ht="31" thickBot="1">
       <c r="A51" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="27"/>
-      <c r="C51" s="32"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="20"/>
+      <c r="B51" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C51" s="24"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="21"/>
       <c r="F51" s="15"/>
       <c r="G51" s="15"/>
-      <c r="H51" s="23"/>
+      <c r="H51" s="20"/>
       <c r="I51" s="15"/>
-      <c r="J51" s="23"/>
+      <c r="J51" s="20"/>
       <c r="K51" s="15"/>
       <c r="L51" s="15"/>
       <c r="M51" s="15"/>
-      <c r="N51" s="23"/>
+      <c r="N51" s="20"/>
     </row>
     <row r="52" spans="1:14" ht="113.5" customHeight="1" thickBot="1">
       <c r="A52" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C52" s="26" t="s">
+      <c r="C52" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="19" t="s">
@@ -4532,32 +4624,34 @@
       <c r="M52" s="19"/>
       <c r="N52" s="19"/>
     </row>
-    <row r="53" spans="1:14" ht="18" thickBot="1">
+    <row r="53" spans="1:14" ht="31" thickBot="1">
       <c r="A53" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B53" s="27"/>
-      <c r="C53" s="33"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="20"/>
-      <c r="F53" s="20"/>
-      <c r="G53" s="20"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="23"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="23"/>
-      <c r="L53" s="20"/>
-      <c r="M53" s="20"/>
-      <c r="N53" s="20"/>
+      <c r="B53" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53" s="23"/>
+      <c r="D53" s="25"/>
+      <c r="E53" s="21"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="21"/>
+      <c r="H53" s="20"/>
+      <c r="I53" s="20"/>
+      <c r="J53" s="20"/>
+      <c r="K53" s="20"/>
+      <c r="L53" s="21"/>
+      <c r="M53" s="21"/>
+      <c r="N53" s="21"/>
     </row>
     <row r="54" spans="1:14" ht="141.25" customHeight="1" thickBot="1">
       <c r="A54" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B54" s="27" t="s">
+      <c r="B54" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C54" s="26" t="s">
+      <c r="C54" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="19" t="s">
@@ -4574,32 +4668,34 @@
       <c r="M54" s="19"/>
       <c r="N54" s="19"/>
     </row>
-    <row r="55" spans="1:14" ht="18" thickBot="1">
+    <row r="55" spans="1:14" ht="31" thickBot="1">
       <c r="A55" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B55" s="27"/>
-      <c r="C55" s="33"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="20"/>
-      <c r="F55" s="20"/>
-      <c r="G55" s="20"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="20"/>
-      <c r="K55" s="20"/>
-      <c r="L55" s="20"/>
-      <c r="M55" s="20"/>
-      <c r="N55" s="20"/>
+      <c r="B55" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C55" s="23"/>
+      <c r="D55" s="25"/>
+      <c r="E55" s="21"/>
+      <c r="F55" s="21"/>
+      <c r="G55" s="21"/>
+      <c r="H55" s="20"/>
+      <c r="I55" s="20"/>
+      <c r="J55" s="21"/>
+      <c r="K55" s="21"/>
+      <c r="L55" s="21"/>
+      <c r="M55" s="21"/>
+      <c r="N55" s="21"/>
     </row>
     <row r="56" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A56" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B56" s="25" t="s">
+      <c r="B56" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="26" t="s">
+      <c r="C56" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="19" t="s">
@@ -4616,74 +4712,78 @@
       <c r="M56" s="19"/>
       <c r="N56" s="19"/>
     </row>
-    <row r="57" spans="1:14" ht="18" thickBot="1">
+    <row r="57" spans="1:14" ht="31" thickBot="1">
       <c r="A57" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="B57" s="25"/>
-      <c r="C57" s="35"/>
-      <c r="D57" s="36"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="24"/>
-      <c r="H57" s="24"/>
-      <c r="I57" s="24"/>
-      <c r="J57" s="24"/>
-      <c r="K57" s="24"/>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
+      <c r="B57" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" s="31"/>
+      <c r="D57" s="32"/>
+      <c r="E57" s="29"/>
+      <c r="F57" s="29"/>
+      <c r="G57" s="29"/>
+      <c r="H57" s="29"/>
+      <c r="I57" s="29"/>
+      <c r="J57" s="29"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
     </row>
     <row r="58" spans="1:14" ht="15.75" customHeight="1" thickTop="1">
       <c r="A58" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C58" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="21" t="s">
+      <c r="C58" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="E58" s="21"/>
-      <c r="F58" s="21"/>
-      <c r="G58" s="21"/>
-      <c r="H58" s="21"/>
-      <c r="I58" s="21"/>
-      <c r="J58" s="21"/>
+      <c r="E58" s="26"/>
+      <c r="F58" s="26"/>
+      <c r="G58" s="26"/>
+      <c r="H58" s="26"/>
+      <c r="I58" s="26"/>
+      <c r="J58" s="26"/>
       <c r="K58" s="18"/>
-      <c r="L58" s="21"/>
+      <c r="L58" s="26"/>
       <c r="M58" s="18"/>
-      <c r="N58" s="21"/>
-    </row>
-    <row r="59" spans="1:14" ht="18" thickBot="1">
+      <c r="N58" s="26"/>
+    </row>
+    <row r="59" spans="1:14" ht="31" thickBot="1">
       <c r="A59" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B59" s="28"/>
+      <c r="B59" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C59" s="30"/>
-      <c r="D59" s="23"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="23"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="D59" s="20"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="K59" s="15"/>
-      <c r="L59" s="23"/>
+      <c r="L59" s="20"/>
       <c r="M59" s="15"/>
-      <c r="N59" s="22"/>
+      <c r="N59" s="27"/>
     </row>
     <row r="60" spans="1:14" ht="127.25" customHeight="1">
       <c r="A60" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B60" s="27" t="s">
+      <c r="B60" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="26" t="s">
+      <c r="C60" s="22" t="s">
         <v>34</v>
       </c>
       <c r="D60" s="19" t="s">
@@ -4700,32 +4800,34 @@
       <c r="M60" s="19"/>
       <c r="N60" s="19"/>
     </row>
-    <row r="61" spans="1:14" ht="18" thickBot="1">
+    <row r="61" spans="1:14" ht="31" thickBot="1">
       <c r="A61" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B61" s="27"/>
-      <c r="C61" s="32"/>
-      <c r="D61" s="23"/>
-      <c r="E61" s="20"/>
-      <c r="F61" s="23"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="20"/>
-      <c r="I61" s="20"/>
-      <c r="J61" s="20"/>
-      <c r="K61" s="23"/>
-      <c r="L61" s="23"/>
-      <c r="M61" s="23"/>
-      <c r="N61" s="20"/>
+      <c r="B61" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C61" s="24"/>
+      <c r="D61" s="20"/>
+      <c r="E61" s="21"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
+      <c r="H61" s="21"/>
+      <c r="I61" s="21"/>
+      <c r="J61" s="21"/>
+      <c r="K61" s="20"/>
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="21"/>
     </row>
     <row r="62" spans="1:14" ht="141.25" customHeight="1">
       <c r="A62" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B62" s="27" t="s">
+      <c r="B62" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C62" s="26" t="s">
+      <c r="C62" s="22" t="s">
         <v>28</v>
       </c>
       <c r="D62" s="19" t="s">
@@ -4742,32 +4844,34 @@
       <c r="M62" s="16"/>
       <c r="N62" s="19"/>
     </row>
-    <row r="63" spans="1:14" ht="18" thickBot="1">
+    <row r="63" spans="1:14" ht="31" thickBot="1">
       <c r="A63" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B63" s="27"/>
-      <c r="C63" s="32"/>
-      <c r="D63" s="23"/>
-      <c r="E63" s="20"/>
-      <c r="F63" s="23"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="20"/>
+      <c r="B63" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" s="24"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="21"/>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20"/>
+      <c r="H63" s="21"/>
       <c r="I63" s="15"/>
-      <c r="J63" s="20"/>
-      <c r="K63" s="20"/>
+      <c r="J63" s="21"/>
+      <c r="K63" s="21"/>
       <c r="L63" s="15"/>
       <c r="M63" s="15"/>
-      <c r="N63" s="20"/>
+      <c r="N63" s="21"/>
     </row>
     <row r="64" spans="1:14" ht="99.5" customHeight="1">
       <c r="A64" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B64" s="27" t="s">
+      <c r="B64" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C64" s="26" t="s">
+      <c r="C64" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="19" t="s">
@@ -4784,32 +4888,34 @@
       <c r="M64" s="19"/>
       <c r="N64" s="19"/>
     </row>
-    <row r="65" spans="1:14" ht="18" thickBot="1">
+    <row r="65" spans="1:14" ht="31" thickBot="1">
       <c r="A65" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B65" s="27"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34"/>
-      <c r="E65" s="23"/>
-      <c r="F65" s="23"/>
-      <c r="G65" s="23"/>
-      <c r="H65" s="23"/>
+      <c r="B65" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C65" s="23"/>
+      <c r="D65" s="25"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
+      <c r="H65" s="20"/>
       <c r="I65" s="15"/>
-      <c r="J65" s="23"/>
-      <c r="K65" s="20"/>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="23"/>
+      <c r="J65" s="20"/>
+      <c r="K65" s="21"/>
+      <c r="L65" s="21"/>
+      <c r="M65" s="21"/>
+      <c r="N65" s="20"/>
     </row>
     <row r="66" spans="1:14" ht="141.25" customHeight="1">
       <c r="A66" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B66" s="27" t="s">
+      <c r="B66" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C66" s="26" t="s">
+      <c r="C66" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D66" s="19" t="s">
@@ -4826,32 +4932,34 @@
       <c r="M66" s="19"/>
       <c r="N66" s="16"/>
     </row>
-    <row r="67" spans="1:14" ht="18" thickBot="1">
+    <row r="67" spans="1:14" ht="31" thickBot="1">
       <c r="A67" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B67" s="27"/>
-      <c r="C67" s="33"/>
-      <c r="D67" s="34"/>
-      <c r="E67" s="23"/>
-      <c r="F67" s="20"/>
-      <c r="G67" s="20"/>
-      <c r="H67" s="23"/>
-      <c r="I67" s="23"/>
-      <c r="J67" s="23"/>
-      <c r="K67" s="20"/>
-      <c r="L67" s="20"/>
-      <c r="M67" s="20"/>
+      <c r="B67" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C67" s="23"/>
+      <c r="D67" s="25"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="21"/>
+      <c r="G67" s="21"/>
+      <c r="H67" s="20"/>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
+      <c r="K67" s="21"/>
+      <c r="L67" s="21"/>
+      <c r="M67" s="21"/>
       <c r="N67" s="15"/>
     </row>
     <row r="68" spans="1:14" ht="15.75" customHeight="1">
       <c r="A68" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B68" s="27" t="s">
+      <c r="B68" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C68" s="26" t="s">
+      <c r="C68" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D68" s="19" t="s">
@@ -4868,32 +4976,34 @@
       <c r="M68" s="19"/>
       <c r="N68" s="16"/>
     </row>
-    <row r="69" spans="1:14" ht="18" thickBot="1">
+    <row r="69" spans="1:14" ht="31" thickBot="1">
       <c r="A69" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B69" s="27"/>
-      <c r="C69" s="33"/>
-      <c r="D69" s="34"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="20"/>
-      <c r="G69" s="20"/>
-      <c r="H69" s="23"/>
+      <c r="B69" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C69" s="23"/>
+      <c r="D69" s="25"/>
+      <c r="E69" s="20"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="21"/>
+      <c r="H69" s="20"/>
       <c r="I69" s="15"/>
-      <c r="J69" s="23"/>
-      <c r="K69" s="20"/>
-      <c r="L69" s="20"/>
-      <c r="M69" s="20"/>
+      <c r="J69" s="20"/>
+      <c r="K69" s="21"/>
+      <c r="L69" s="21"/>
+      <c r="M69" s="21"/>
       <c r="N69" s="15"/>
     </row>
     <row r="70" spans="1:14" ht="43.75" customHeight="1">
       <c r="A70" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="25" t="s">
+      <c r="B70" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C70" s="26" t="s">
+      <c r="C70" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="19" t="s">
@@ -4910,74 +5020,78 @@
       <c r="M70" s="19"/>
       <c r="N70" s="19"/>
     </row>
-    <row r="71" spans="1:14" ht="18" thickBot="1">
+    <row r="71" spans="1:14" ht="31" thickBot="1">
       <c r="A71" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B71" s="25"/>
-      <c r="C71" s="35"/>
-      <c r="D71" s="36"/>
-      <c r="E71" s="24"/>
-      <c r="F71" s="24"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="24"/>
-      <c r="I71" s="24"/>
-      <c r="J71" s="31"/>
-      <c r="K71" s="24"/>
-      <c r="L71" s="24"/>
-      <c r="M71" s="24"/>
-      <c r="N71" s="24"/>
+      <c r="B71" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" s="31"/>
+      <c r="D71" s="32"/>
+      <c r="E71" s="29"/>
+      <c r="F71" s="29"/>
+      <c r="G71" s="29"/>
+      <c r="H71" s="29"/>
+      <c r="I71" s="29"/>
+      <c r="J71" s="33"/>
+      <c r="K71" s="29"/>
+      <c r="L71" s="29"/>
+      <c r="M71" s="29"/>
+      <c r="N71" s="29"/>
     </row>
     <row r="72" spans="1:14" ht="15.75" customHeight="1" thickTop="1" thickBot="1">
       <c r="A72" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B72" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="C72" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
-      <c r="G72" s="21"/>
-      <c r="H72" s="21"/>
-      <c r="I72" s="21"/>
-      <c r="J72" s="21"/>
+      <c r="C72" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="26"/>
+      <c r="G72" s="26"/>
+      <c r="H72" s="26"/>
+      <c r="I72" s="26"/>
+      <c r="J72" s="26"/>
       <c r="K72" s="18"/>
-      <c r="L72" s="21"/>
-      <c r="M72" s="21"/>
-      <c r="N72" s="21"/>
-    </row>
-    <row r="73" spans="1:14" ht="18" thickBot="1">
+      <c r="L72" s="26"/>
+      <c r="M72" s="26"/>
+      <c r="N72" s="26"/>
+    </row>
+    <row r="73" spans="1:14" ht="31" thickBot="1">
       <c r="A73" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B73" s="28"/>
+      <c r="B73" s="34" t="s">
+        <v>3</v>
+      </c>
       <c r="C73" s="30"/>
-      <c r="D73" s="22"/>
-      <c r="E73" s="22"/>
-      <c r="F73" s="22"/>
-      <c r="G73" s="22"/>
-      <c r="H73" s="22"/>
-      <c r="I73" s="22"/>
-      <c r="J73" s="22"/>
+      <c r="D73" s="27"/>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="27"/>
+      <c r="H73" s="27"/>
+      <c r="I73" s="27"/>
+      <c r="J73" s="27"/>
       <c r="K73" s="15"/>
-      <c r="L73" s="22"/>
-      <c r="M73" s="22"/>
-      <c r="N73" s="22"/>
+      <c r="L73" s="27"/>
+      <c r="M73" s="27"/>
+      <c r="N73" s="27"/>
     </row>
     <row r="74" spans="1:14" ht="127.25" customHeight="1" thickBot="1">
       <c r="A74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="C74" s="26" t="s">
+      <c r="C74" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D74" s="19" t="s">
@@ -4994,32 +5108,34 @@
       <c r="M74" s="19"/>
       <c r="N74" s="19"/>
     </row>
-    <row r="75" spans="1:14" ht="18" thickBot="1">
+    <row r="75" spans="1:14" ht="31" thickBot="1">
       <c r="A75" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B75" s="27"/>
-      <c r="C75" s="33"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="20"/>
-      <c r="F75" s="20"/>
-      <c r="G75" s="20"/>
-      <c r="H75" s="20"/>
-      <c r="I75" s="20"/>
-      <c r="J75" s="20"/>
+      <c r="B75" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75" s="23"/>
+      <c r="D75" s="25"/>
+      <c r="E75" s="21"/>
+      <c r="F75" s="21"/>
+      <c r="G75" s="21"/>
+      <c r="H75" s="21"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="21"/>
       <c r="K75" s="15"/>
-      <c r="L75" s="20"/>
-      <c r="M75" s="20"/>
-      <c r="N75" s="20"/>
+      <c r="L75" s="21"/>
+      <c r="M75" s="21"/>
+      <c r="N75" s="21"/>
     </row>
     <row r="76" spans="1:14" ht="127.25" customHeight="1" thickBot="1">
       <c r="A76" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B76" s="27" t="s">
+      <c r="B76" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="26" t="s">
+      <c r="C76" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="19" t="s">
@@ -5036,32 +5152,34 @@
       <c r="M76" s="19"/>
       <c r="N76" s="19"/>
     </row>
-    <row r="77" spans="1:14" ht="18" thickBot="1">
+    <row r="77" spans="1:14" ht="31" thickBot="1">
       <c r="A77" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B77" s="27"/>
-      <c r="C77" s="33"/>
-      <c r="D77" s="34"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
+      <c r="B77" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="C77" s="23"/>
+      <c r="D77" s="25"/>
+      <c r="E77" s="21"/>
+      <c r="F77" s="21"/>
+      <c r="G77" s="21"/>
+      <c r="H77" s="21"/>
+      <c r="I77" s="21"/>
+      <c r="J77" s="21"/>
       <c r="K77" s="15"/>
-      <c r="L77" s="20"/>
-      <c r="M77" s="20"/>
-      <c r="N77" s="20"/>
+      <c r="L77" s="21"/>
+      <c r="M77" s="21"/>
+      <c r="N77" s="21"/>
     </row>
     <row r="78" spans="1:14" ht="43.75" customHeight="1" thickBot="1">
       <c r="A78" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="27" t="s">
+      <c r="B78" s="35" t="s">
         <v>6</v>
       </c>
-      <c r="C78" s="26" t="s">
+      <c r="C78" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="19" t="s">
@@ -5078,32 +5196,34 @@
       <c r="M78" s="19"/>
       <c r="N78" s="19"/>
     </row>
-    <row r="79" spans="1:14" ht="18" thickBot="1">
+    <row r="79" spans="1:14" ht="31" thickBot="1">
       <c r="A79" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B79" s="27"/>
-      <c r="C79" s="33"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="20"/>
-      <c r="F79" s="20"/>
-      <c r="G79" s="20"/>
-      <c r="H79" s="20"/>
-      <c r="I79" s="20"/>
-      <c r="J79" s="20"/>
-      <c r="K79" s="20"/>
-      <c r="L79" s="20"/>
-      <c r="M79" s="20"/>
-      <c r="N79" s="20"/>
+      <c r="B79" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79" s="23"/>
+      <c r="D79" s="25"/>
+      <c r="E79" s="21"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="21"/>
+      <c r="H79" s="21"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="21"/>
+      <c r="K79" s="21"/>
+      <c r="L79" s="21"/>
+      <c r="M79" s="21"/>
+      <c r="N79" s="21"/>
     </row>
     <row r="80" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A80" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B80" s="27" t="s">
+      <c r="B80" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C80" s="26" t="s">
+      <c r="C80" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D80" s="19" t="s">
@@ -5120,32 +5240,34 @@
       <c r="M80" s="19"/>
       <c r="N80" s="19"/>
     </row>
-    <row r="81" spans="1:14" ht="18" thickBot="1">
+    <row r="81" spans="1:14" ht="31" thickBot="1">
       <c r="A81" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B81" s="27"/>
-      <c r="C81" s="33"/>
-      <c r="D81" s="34"/>
-      <c r="E81" s="20"/>
-      <c r="F81" s="20"/>
-      <c r="G81" s="20"/>
-      <c r="H81" s="20"/>
-      <c r="I81" s="20"/>
-      <c r="J81" s="20"/>
-      <c r="K81" s="20"/>
-      <c r="L81" s="20"/>
-      <c r="M81" s="20"/>
-      <c r="N81" s="20"/>
+      <c r="B81" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C81" s="23"/>
+      <c r="D81" s="25"/>
+      <c r="E81" s="21"/>
+      <c r="F81" s="21"/>
+      <c r="G81" s="21"/>
+      <c r="H81" s="21"/>
+      <c r="I81" s="21"/>
+      <c r="J81" s="21"/>
+      <c r="K81" s="21"/>
+      <c r="L81" s="21"/>
+      <c r="M81" s="21"/>
+      <c r="N81" s="21"/>
     </row>
     <row r="82" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A82" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B82" s="27" t="s">
+      <c r="B82" s="35" t="s">
         <v>8</v>
       </c>
-      <c r="C82" s="26" t="s">
+      <c r="C82" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D82" s="19" t="s">
@@ -5162,32 +5284,34 @@
       <c r="M82" s="19"/>
       <c r="N82" s="19"/>
     </row>
-    <row r="83" spans="1:14" ht="18" thickBot="1">
+    <row r="83" spans="1:14" ht="31" thickBot="1">
       <c r="A83" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B83" s="27"/>
-      <c r="C83" s="33"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="20"/>
-      <c r="L83" s="20"/>
-      <c r="M83" s="20"/>
-      <c r="N83" s="20"/>
+      <c r="B83" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="25"/>
+      <c r="E83" s="21"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="21"/>
+      <c r="H83" s="21"/>
+      <c r="I83" s="21"/>
+      <c r="J83" s="21"/>
+      <c r="K83" s="21"/>
+      <c r="L83" s="21"/>
+      <c r="M83" s="21"/>
+      <c r="N83" s="21"/>
     </row>
     <row r="84" spans="1:14" ht="15.75" customHeight="1" thickBot="1">
       <c r="A84" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B84" s="25" t="s">
+      <c r="B84" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="C84" s="26" t="s">
+      <c r="C84" s="22" t="s">
         <v>15</v>
       </c>
       <c r="D84" s="19" t="s">
@@ -5204,436 +5328,88 @@
       <c r="M84" s="19"/>
       <c r="N84" s="19"/>
     </row>
-    <row r="85" spans="1:14" ht="18" thickBot="1">
+    <row r="85" spans="1:14" ht="31" thickBot="1">
       <c r="A85" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B85" s="25"/>
-      <c r="C85" s="33"/>
-      <c r="D85" s="34"/>
-      <c r="E85" s="20"/>
-      <c r="F85" s="20"/>
-      <c r="G85" s="20"/>
-      <c r="H85" s="20"/>
-      <c r="I85" s="20"/>
-      <c r="J85" s="20"/>
-      <c r="K85" s="20"/>
-      <c r="L85" s="20"/>
-      <c r="M85" s="20"/>
-      <c r="N85" s="20"/>
+      <c r="B85" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="25"/>
+      <c r="E85" s="21"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="21"/>
+      <c r="H85" s="21"/>
+      <c r="I85" s="21"/>
+      <c r="J85" s="21"/>
+      <c r="K85" s="21"/>
+      <c r="L85" s="21"/>
+      <c r="M85" s="21"/>
+      <c r="N85" s="21"/>
     </row>
   </sheetData>
-  <mergeCells count="494">
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="E4:E5"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="L30:L31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="F32:F33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="J32:J33"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="G30:G31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="G32:G33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="F30:F31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="J30:J31"/>
-    <mergeCell ref="K30:K31"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="C36:C37"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="J36:J37"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="G34:G35"/>
-    <mergeCell ref="J34:J35"/>
-    <mergeCell ref="G36:G37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="F34:F35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="L38:L39"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="L40:L41"/>
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="C38:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="J38:J39"/>
-    <mergeCell ref="K38:K39"/>
-    <mergeCell ref="L42:L43"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="F44:F45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="J44:J45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="G44:G45"/>
-    <mergeCell ref="K44:K45"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="C42:C43"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="F42:F43"/>
-    <mergeCell ref="G42:G43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="J42:J43"/>
-    <mergeCell ref="K42:K43"/>
-    <mergeCell ref="L46:L47"/>
-    <mergeCell ref="B48:B49"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="F48:F49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="J48:J49"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="G46:G47"/>
-    <mergeCell ref="K46:K47"/>
-    <mergeCell ref="G48:G49"/>
-    <mergeCell ref="K48:K49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="C48:C49"/>
-    <mergeCell ref="B50:B51"/>
-    <mergeCell ref="C50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="J50:J51"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="F46:F47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="J46:J47"/>
-    <mergeCell ref="L52:L53"/>
-    <mergeCell ref="B54:B55"/>
-    <mergeCell ref="C54:C55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="F54:F55"/>
-    <mergeCell ref="G54:G55"/>
-    <mergeCell ref="J54:J55"/>
-    <mergeCell ref="K54:K55"/>
-    <mergeCell ref="L54:L55"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B52:B53"/>
-    <mergeCell ref="C52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="F52:F53"/>
-    <mergeCell ref="G52:G53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="J52:J53"/>
-    <mergeCell ref="K52:K53"/>
-    <mergeCell ref="L58:L59"/>
-    <mergeCell ref="B56:B57"/>
-    <mergeCell ref="C56:C57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="F56:F57"/>
-    <mergeCell ref="G56:G57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="J56:J57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="F60:F61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="J60:J61"/>
-    <mergeCell ref="K60:K61"/>
-    <mergeCell ref="L60:L61"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="J62:J63"/>
-    <mergeCell ref="K62:K63"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="G60:G61"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="G62:G63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="F62:F63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="B64:B65"/>
-    <mergeCell ref="C64:C65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="J64:J65"/>
-    <mergeCell ref="K64:K65"/>
-    <mergeCell ref="L64:L65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="G64:G65"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="B66:B67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="F66:F67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="G66:G67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="C66:C67"/>
-    <mergeCell ref="B70:B71"/>
-    <mergeCell ref="C70:C71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="F70:F71"/>
-    <mergeCell ref="G70:G71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="J70:J71"/>
-    <mergeCell ref="K70:K71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="J72:J73"/>
-    <mergeCell ref="B72:B73"/>
-    <mergeCell ref="C72:C73"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="F72:F73"/>
-    <mergeCell ref="G72:G73"/>
-    <mergeCell ref="H72:H73"/>
-    <mergeCell ref="I72:I73"/>
-    <mergeCell ref="B74:B75"/>
-    <mergeCell ref="C74:C75"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="F74:F75"/>
-    <mergeCell ref="G74:G75"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="L74:L75"/>
-    <mergeCell ref="E74:E75"/>
-    <mergeCell ref="H74:H75"/>
-    <mergeCell ref="E76:E77"/>
-    <mergeCell ref="H78:H79"/>
-    <mergeCell ref="J76:J77"/>
-    <mergeCell ref="B76:B77"/>
-    <mergeCell ref="C76:C77"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="F76:F77"/>
-    <mergeCell ref="G76:G77"/>
-    <mergeCell ref="H76:H77"/>
-    <mergeCell ref="I76:I77"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="B80:B81"/>
-    <mergeCell ref="C80:C81"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="E80:E81"/>
-    <mergeCell ref="F80:F81"/>
-    <mergeCell ref="G80:G81"/>
-    <mergeCell ref="H80:H81"/>
-    <mergeCell ref="I80:I81"/>
-    <mergeCell ref="J80:J81"/>
-    <mergeCell ref="B82:B83"/>
-    <mergeCell ref="C82:C83"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="E82:E83"/>
-    <mergeCell ref="F82:F83"/>
-    <mergeCell ref="G82:G83"/>
-    <mergeCell ref="H82:H83"/>
-    <mergeCell ref="I82:I83"/>
-    <mergeCell ref="J82:J83"/>
-    <mergeCell ref="B84:B85"/>
-    <mergeCell ref="C84:C85"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="E84:E85"/>
-    <mergeCell ref="F84:F85"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="H84:H85"/>
-    <mergeCell ref="I84:I85"/>
-    <mergeCell ref="J84:J85"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K2:K3"/>
+  <mergeCells count="452">
+    <mergeCell ref="M82:M83"/>
+    <mergeCell ref="N82:N83"/>
+    <mergeCell ref="M84:M85"/>
+    <mergeCell ref="N84:N85"/>
+    <mergeCell ref="M72:M73"/>
+    <mergeCell ref="N72:N73"/>
+    <mergeCell ref="M74:M75"/>
+    <mergeCell ref="N74:N75"/>
+    <mergeCell ref="M76:M77"/>
+    <mergeCell ref="N76:N77"/>
+    <mergeCell ref="M78:M79"/>
+    <mergeCell ref="N78:N79"/>
+    <mergeCell ref="M80:M81"/>
+    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="N62:N63"/>
+    <mergeCell ref="M64:M65"/>
+    <mergeCell ref="N64:N65"/>
+    <mergeCell ref="M66:M67"/>
+    <mergeCell ref="M68:M69"/>
+    <mergeCell ref="M70:M71"/>
+    <mergeCell ref="N70:N71"/>
+    <mergeCell ref="M52:M53"/>
+    <mergeCell ref="N52:N53"/>
+    <mergeCell ref="M54:M55"/>
+    <mergeCell ref="N54:N55"/>
+    <mergeCell ref="M56:M57"/>
+    <mergeCell ref="N56:N57"/>
+    <mergeCell ref="N58:N59"/>
+    <mergeCell ref="M60:M61"/>
+    <mergeCell ref="N60:N61"/>
+    <mergeCell ref="M42:M43"/>
+    <mergeCell ref="N42:N43"/>
+    <mergeCell ref="N44:N45"/>
+    <mergeCell ref="M46:M47"/>
+    <mergeCell ref="N50:N51"/>
+    <mergeCell ref="N32:N33"/>
+    <mergeCell ref="M34:M35"/>
+    <mergeCell ref="M38:M39"/>
+    <mergeCell ref="N38:N39"/>
+    <mergeCell ref="M40:M41"/>
+    <mergeCell ref="N40:N41"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="N22:N23"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="N24:N25"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="N20:N21"/>
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="N4:N5"/>
@@ -5658,66 +5434,374 @@
     <mergeCell ref="L66:L67"/>
     <mergeCell ref="K56:K57"/>
     <mergeCell ref="L56:L57"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="N22:N23"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="N24:N25"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="N26:N27"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="N28:N29"/>
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M42:M43"/>
-    <mergeCell ref="N42:N43"/>
-    <mergeCell ref="N44:N45"/>
-    <mergeCell ref="M46:M47"/>
-    <mergeCell ref="N50:N51"/>
-    <mergeCell ref="N32:N33"/>
-    <mergeCell ref="M34:M35"/>
-    <mergeCell ref="M38:M39"/>
-    <mergeCell ref="N38:N39"/>
-    <mergeCell ref="M40:M41"/>
-    <mergeCell ref="N40:N41"/>
-    <mergeCell ref="N62:N63"/>
-    <mergeCell ref="M64:M65"/>
-    <mergeCell ref="N64:N65"/>
-    <mergeCell ref="M66:M67"/>
-    <mergeCell ref="M68:M69"/>
-    <mergeCell ref="M70:M71"/>
-    <mergeCell ref="N70:N71"/>
-    <mergeCell ref="M52:M53"/>
-    <mergeCell ref="N52:N53"/>
-    <mergeCell ref="M54:M55"/>
-    <mergeCell ref="N54:N55"/>
-    <mergeCell ref="M56:M57"/>
-    <mergeCell ref="N56:N57"/>
-    <mergeCell ref="N58:N59"/>
-    <mergeCell ref="M60:M61"/>
-    <mergeCell ref="N60:N61"/>
-    <mergeCell ref="M82:M83"/>
-    <mergeCell ref="N82:N83"/>
-    <mergeCell ref="M84:M85"/>
-    <mergeCell ref="N84:N85"/>
-    <mergeCell ref="M72:M73"/>
-    <mergeCell ref="N72:N73"/>
-    <mergeCell ref="M74:M75"/>
-    <mergeCell ref="N74:N75"/>
-    <mergeCell ref="M76:M77"/>
-    <mergeCell ref="N76:N77"/>
-    <mergeCell ref="M78:M79"/>
-    <mergeCell ref="N78:N79"/>
-    <mergeCell ref="M80:M81"/>
-    <mergeCell ref="N80:N81"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="E84:E85"/>
+    <mergeCell ref="F84:F85"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="H84:H85"/>
+    <mergeCell ref="I84:I85"/>
+    <mergeCell ref="J84:J85"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="D82:D83"/>
+    <mergeCell ref="E82:E83"/>
+    <mergeCell ref="F82:F83"/>
+    <mergeCell ref="G82:G83"/>
+    <mergeCell ref="H82:H83"/>
+    <mergeCell ref="I82:I83"/>
+    <mergeCell ref="J82:J83"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="E80:E81"/>
+    <mergeCell ref="F80:F81"/>
+    <mergeCell ref="G80:G81"/>
+    <mergeCell ref="H80:H81"/>
+    <mergeCell ref="I80:I81"/>
+    <mergeCell ref="J80:J81"/>
+    <mergeCell ref="E76:E77"/>
+    <mergeCell ref="H78:H79"/>
+    <mergeCell ref="J76:J77"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="F76:F77"/>
+    <mergeCell ref="G76:G77"/>
+    <mergeCell ref="H76:H77"/>
+    <mergeCell ref="I76:I77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="F74:F75"/>
+    <mergeCell ref="G74:G75"/>
+    <mergeCell ref="I74:I75"/>
+    <mergeCell ref="J74:J75"/>
+    <mergeCell ref="L74:L75"/>
+    <mergeCell ref="E74:E75"/>
+    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="J72:J73"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="F72:F73"/>
+    <mergeCell ref="G72:G73"/>
+    <mergeCell ref="H72:H73"/>
+    <mergeCell ref="I72:I73"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="F70:F71"/>
+    <mergeCell ref="G70:G71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="J70:J71"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="F66:F67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="J66:J67"/>
+    <mergeCell ref="G66:G67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="J64:J65"/>
+    <mergeCell ref="K64:K65"/>
+    <mergeCell ref="L64:L65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="G64:G65"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="F60:F61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="J60:J61"/>
+    <mergeCell ref="K60:K61"/>
+    <mergeCell ref="L60:L61"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="J62:J63"/>
+    <mergeCell ref="K62:K63"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="G60:G61"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="G62:G63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="F62:F63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="L58:L59"/>
+    <mergeCell ref="C56:C57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="F56:F57"/>
+    <mergeCell ref="G56:G57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="J56:J57"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="L52:L53"/>
+    <mergeCell ref="C54:C55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="F54:F55"/>
+    <mergeCell ref="G54:G55"/>
+    <mergeCell ref="J54:J55"/>
+    <mergeCell ref="K54:K55"/>
+    <mergeCell ref="L54:L55"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="C52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="F52:F53"/>
+    <mergeCell ref="G52:G53"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="J52:J53"/>
+    <mergeCell ref="K52:K53"/>
+    <mergeCell ref="C50:C51"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="J50:J51"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="F46:F47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="J46:J47"/>
+    <mergeCell ref="L46:L47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="F48:F49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="J48:J49"/>
+    <mergeCell ref="C46:C47"/>
+    <mergeCell ref="G46:G47"/>
+    <mergeCell ref="K46:K47"/>
+    <mergeCell ref="G48:G49"/>
+    <mergeCell ref="K48:K49"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="L42:L43"/>
+    <mergeCell ref="C44:C45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="F44:F45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="J44:J45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="G44:G45"/>
+    <mergeCell ref="K44:K45"/>
+    <mergeCell ref="C42:C43"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="F42:F43"/>
+    <mergeCell ref="G42:G43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="J42:J43"/>
+    <mergeCell ref="K42:K43"/>
+    <mergeCell ref="L38:L39"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="L40:L41"/>
+    <mergeCell ref="F38:F39"/>
+    <mergeCell ref="C38:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="J38:J39"/>
+    <mergeCell ref="K38:K39"/>
+    <mergeCell ref="C36:C37"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="J36:J37"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="J34:J35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="F34:F35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="J32:J33"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="G32:G33"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="G4:G5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K2:K3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
